--- a/biology/Origine et évolution du vivant/Famennoise/Famennoise.xlsx
+++ b/biology/Origine et évolution du vivant/Famennoise/Famennoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Famenoise est une race de poule domestique.
@@ -512,13 +524,85 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est une volaille de type fermier, fière, svelte, rustique et vive.
-Origine
-Originaire la région de Famenne sur les confins du Luxembourg, du Namurois et du Condroz en général, en Belgique. 
-Standard officiel
-Crête : simple
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une volaille de type fermier, fière, svelte, rustique et vive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Famennoise</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Famennoise</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire la région de Famenne sur les confins du Luxembourg, du Namurois et du Condroz en général, en Belgique. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Famennoise</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Famennoise</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard officiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Crête : simple
 Oreillons : rouges
 Couleur des yeux : miel foncé
 Couleur de la peau : blanche
